--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -571,87 +571,87 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>romance</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>suspense</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>mystery</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>sci-fi,</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>fantasy</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>animation</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>sport</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>sci-fi,</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>suspense</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>drama</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>romance</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1717,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -3242,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
@@ -4582,16 +4582,16 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -4716,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" t="n">
         <v>1</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36" t="n">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" t="n">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -6089,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" t="n">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AM47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS47" t="n">
         <v>1</v>
@@ -7087,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="AB49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -7197,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" t="n">
         <v>0</v>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" t="n">
         <v>1</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
         <v>0</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
@@ -7465,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
         <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -7480,13 +7480,13 @@
         <v>0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51" t="n">
         <v>0</v>
